--- a/transitions_state_all_2025-03-18.xlsx
+++ b/transitions_state_all_2025-03-18.xlsx
@@ -8,15 +8,26 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\SCIMAI-Gym\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{AE7C2AB3-6142-41D6-98CB-505C9613C63F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4173C4BF-F4FD-42CD-B17C-A3875D261DB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{C6CD6CAE-CD59-4781-B9D4-E37BEA742F3C}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{C6CD6CAE-CD59-4781-B9D4-E37BEA742F3C}"/>
   </bookViews>
   <sheets>
     <sheet name="transitions_state_all_2025-03-1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -427,7 +438,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -610,6 +621,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -858,7 +881,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -866,6 +889,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1225,8 +1254,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D802777-6DCB-4B6B-B317-ACB89159F1FF}">
   <dimension ref="A1:BC31"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="AM20" sqref="AM20"/>
+    <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
+      <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1256,28 +1285,28 @@
       <c r="H1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="N1" t="s">
+      <c r="N1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="O1" t="s">
+      <c r="O1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="P1" t="s">
+      <c r="P1" s="4" t="s">
         <v>11</v>
       </c>
       <c r="Q1" t="s">
@@ -1455,19 +1484,19 @@
         <v>27</v>
       </c>
       <c r="R2">
-        <f>$Q2*12-(V2+Z2)*0.05</f>
+        <f t="shared" ref="R2:R31" si="1">$Q2*12-(V2+Z2)*0.05</f>
         <v>315.3</v>
       </c>
       <c r="S2">
-        <f>$Q2*12-(W2+AA2)*0.05</f>
+        <f t="shared" ref="S2:S31" si="2">$Q2*12-(W2+AA2)*0.05</f>
         <v>315.3</v>
       </c>
       <c r="T2">
-        <f>$Q2*12-(X2+AB2)*0.05</f>
+        <f t="shared" ref="T2:T31" si="3">$Q2*12-(X2+AB2)*0.05</f>
         <v>315.3</v>
       </c>
       <c r="U2">
-        <f>$Q2*12-(Y2+AC2)*0.05</f>
+        <f t="shared" ref="U2:U31" si="4">$Q2*12-(Y2+AC2)*0.05</f>
         <v>314.35000000000002</v>
       </c>
       <c r="V2">
@@ -1502,15 +1531,15 @@
         <v>290.7</v>
       </c>
       <c r="AF2">
-        <f t="shared" ref="AF2:AH2" si="1">$AD2*12-(AJ2+AN2)*0.05</f>
+        <f t="shared" ref="AF2:AH2" si="5">$AD2*12-(AJ2+AN2)*0.05</f>
         <v>290.7</v>
       </c>
       <c r="AG2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>290.7</v>
       </c>
       <c r="AH2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>290.25</v>
       </c>
       <c r="AI2">
@@ -1545,15 +1574,15 @@
         <v>295.25</v>
       </c>
       <c r="AS2">
-        <f t="shared" ref="AS2:AU2" si="2">$AQ2*12-(AW2+BA2)*0.05</f>
+        <f t="shared" ref="AS2:AU2" si="6">$AQ2*12-(AW2+BA2)*0.05</f>
         <v>295.25</v>
       </c>
       <c r="AT2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>287.05</v>
       </c>
       <c r="AU2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>290.25</v>
       </c>
       <c r="AV2">
@@ -1595,19 +1624,19 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <f t="shared" ref="E3:E31" si="3">A3*10-(I3+M3)*0.05</f>
+        <f t="shared" ref="E3:E31" si="7">A3*10-(I3+M3)*0.05</f>
         <v>-45</v>
       </c>
       <c r="F3">
-        <f t="shared" ref="F3:F31" si="4">B3*10-(J3+N3)*0.05</f>
+        <f t="shared" ref="F3:F31" si="8">B3*10-(J3+N3)*0.05</f>
         <v>3331.8</v>
       </c>
       <c r="G3">
-        <f t="shared" ref="G3:G31" si="5">C3*10-(K3+O3)*0.05</f>
+        <f t="shared" ref="G3:G31" si="9">C3*10-(K3+O3)*0.05</f>
         <v>1683.6</v>
       </c>
       <c r="H3">
-        <f t="shared" ref="H3:H31" si="6">D3*10-(L3+P3)*0.05</f>
+        <f t="shared" ref="H3:H31" si="10">D3*10-(L3+P3)*0.05</f>
         <v>-45</v>
       </c>
       <c r="I3">
@@ -1638,19 +1667,19 @@
         <v>14</v>
       </c>
       <c r="R3">
-        <f>$Q3*12-(V3+Z3)*0.05</f>
+        <f t="shared" si="1"/>
         <v>160</v>
       </c>
       <c r="S3">
-        <f>$Q3*12-(W3+AA3)*0.05</f>
+        <f t="shared" si="2"/>
         <v>155</v>
       </c>
       <c r="T3">
-        <f>$Q3*12-(X3+AB3)*0.05</f>
+        <f t="shared" si="3"/>
         <v>155.94999999999999</v>
       </c>
       <c r="U3">
-        <f>$Q3*12-(Y3+AC3)*0.05</f>
+        <f t="shared" si="4"/>
         <v>160</v>
       </c>
       <c r="V3">
@@ -1681,19 +1710,19 @@
         <v>14</v>
       </c>
       <c r="AE3">
-        <f t="shared" ref="AE3:AE31" si="7">$AD3*12-(AI3+AM3)*0.05</f>
+        <f t="shared" ref="AE3:AE31" si="11">$AD3*12-(AI3+AM3)*0.05</f>
         <v>159.4</v>
       </c>
       <c r="AF3">
-        <f t="shared" ref="AF3:AF31" si="8">$AD3*12-(AJ3+AN3)*0.05</f>
+        <f t="shared" ref="AF3:AF31" si="12">$AD3*12-(AJ3+AN3)*0.05</f>
         <v>154.85</v>
       </c>
       <c r="AG3">
-        <f t="shared" ref="AG3:AG31" si="9">$AD3*12-(AK3+AO3)*0.05</f>
+        <f t="shared" ref="AG3:AG31" si="13">$AD3*12-(AK3+AO3)*0.05</f>
         <v>154.85</v>
       </c>
       <c r="AH3">
-        <f t="shared" ref="AH3:AH31" si="10">$AD3*12-(AL3+AP3)*0.05</f>
+        <f t="shared" ref="AH3:AH31" si="14">$AD3*12-(AL3+AP3)*0.05</f>
         <v>158.94999999999999</v>
       </c>
       <c r="AI3">
@@ -1724,19 +1753,19 @@
         <v>13</v>
       </c>
       <c r="AR3">
-        <f t="shared" ref="AR3:AR31" si="11">$AQ3*12-(AV3+AZ3)*0.05</f>
+        <f t="shared" ref="AR3:AR31" si="15">$AQ3*12-(AV3+AZ3)*0.05</f>
         <v>151.9</v>
       </c>
       <c r="AS3">
-        <f t="shared" ref="AS3:AS31" si="12">$AQ3*12-(AW3+BA3)*0.05</f>
+        <f t="shared" ref="AS3:AS31" si="16">$AQ3*12-(AW3+BA3)*0.05</f>
         <v>143.69999999999999</v>
       </c>
       <c r="AT3">
-        <f t="shared" ref="AT3:AT31" si="13">$AQ3*12-(AX3+BB3)*0.05</f>
+        <f t="shared" ref="AT3:AT31" si="17">$AQ3*12-(AX3+BB3)*0.05</f>
         <v>143.69999999999999</v>
       </c>
       <c r="AU3">
-        <f t="shared" ref="AU3:AU31" si="14">$AQ3*12-(AY3+BC3)*0.05</f>
+        <f t="shared" ref="AU3:AU31" si="18">$AQ3*12-(AY3+BC3)*0.05</f>
         <v>146.9</v>
       </c>
       <c r="AV3">
@@ -1778,19 +1807,19 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>357</v>
       </c>
       <c r="F4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>1057.2</v>
       </c>
       <c r="G4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>1049</v>
       </c>
       <c r="H4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>-45</v>
       </c>
       <c r="I4">
@@ -1821,19 +1850,19 @@
         <v>6</v>
       </c>
       <c r="R4">
-        <f>$Q4*12-(V4+Z4)*0.05</f>
+        <f t="shared" si="1"/>
         <v>64.3</v>
       </c>
       <c r="S4">
-        <f>$Q4*12-(W4+AA4)*0.05</f>
+        <f t="shared" si="2"/>
         <v>59.95</v>
       </c>
       <c r="T4">
-        <f>$Q4*12-(X4+AB4)*0.05</f>
+        <f t="shared" si="3"/>
         <v>56.85</v>
       </c>
       <c r="U4">
-        <f>$Q4*12-(Y4+AC4)*0.05</f>
+        <f t="shared" si="4"/>
         <v>60.25</v>
       </c>
       <c r="V4">
@@ -1864,19 +1893,19 @@
         <v>5</v>
       </c>
       <c r="AE4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>49.65</v>
       </c>
       <c r="AF4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>45.1</v>
       </c>
       <c r="AG4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>45.1</v>
       </c>
       <c r="AH4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>51.2</v>
       </c>
       <c r="AI4">
@@ -1907,19 +1936,19 @@
         <v>4</v>
       </c>
       <c r="AR4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>44.1</v>
       </c>
       <c r="AS4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>35.9</v>
       </c>
       <c r="AT4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>35.9</v>
       </c>
       <c r="AU4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>39.1</v>
       </c>
       <c r="AV4">
@@ -1961,19 +1990,19 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>-43</v>
       </c>
       <c r="F5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>-22.8</v>
       </c>
       <c r="G5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>-40.1</v>
       </c>
       <c r="H5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>-45</v>
       </c>
       <c r="I5">
@@ -2004,19 +2033,19 @@
         <v>4</v>
       </c>
       <c r="R5">
-        <f>$Q5*12-(V5+Z5)*0.05</f>
+        <f t="shared" si="1"/>
         <v>40.5</v>
       </c>
       <c r="S5">
-        <f>$Q5*12-(W5+AA5)*0.05</f>
+        <f t="shared" si="2"/>
         <v>39.549999999999997</v>
       </c>
       <c r="T5">
-        <f>$Q5*12-(X5+AB5)*0.05</f>
+        <f t="shared" si="3"/>
         <v>33.049999999999997</v>
       </c>
       <c r="U5">
-        <f>$Q5*12-(Y5+AC5)*0.05</f>
+        <f t="shared" si="4"/>
         <v>33.049999999999997</v>
       </c>
       <c r="V5">
@@ -2047,19 +2076,19 @@
         <v>0</v>
       </c>
       <c r="AE5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>-10.350000000000001</v>
       </c>
       <c r="AF5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>-14.9</v>
       </c>
       <c r="AG5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>-14.9</v>
       </c>
       <c r="AH5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>-8.8000000000000007</v>
       </c>
       <c r="AI5">
@@ -2090,19 +2119,19 @@
         <v>3</v>
       </c>
       <c r="AR5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>32.25</v>
       </c>
       <c r="AS5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>24.049999999999997</v>
       </c>
       <c r="AT5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>24.049999999999997</v>
       </c>
       <c r="AU5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>27.25</v>
       </c>
       <c r="AV5">
@@ -2144,19 +2173,19 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>699.77599999999995</v>
       </c>
       <c r="F6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>-22.8</v>
       </c>
       <c r="G6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>-40.1</v>
       </c>
       <c r="H6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>-45</v>
       </c>
       <c r="I6">
@@ -2187,19 +2216,19 @@
         <v>4</v>
       </c>
       <c r="R6">
-        <f>$Q6*12-(V6+Z6)*0.05</f>
+        <f t="shared" si="1"/>
         <v>36.974000000000004</v>
       </c>
       <c r="S6">
-        <f>$Q6*12-(W6+AA6)*0.05</f>
+        <f t="shared" si="2"/>
         <v>39.75</v>
       </c>
       <c r="T6">
-        <f>$Q6*12-(X6+AB6)*0.05</f>
+        <f t="shared" si="3"/>
         <v>33.25</v>
       </c>
       <c r="U6">
-        <f>$Q6*12-(Y6+AC6)*0.05</f>
+        <f t="shared" si="4"/>
         <v>33.25</v>
       </c>
       <c r="V6">
@@ -2230,19 +2259,19 @@
         <v>7</v>
       </c>
       <c r="AE6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>74</v>
       </c>
       <c r="AF6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>69.45</v>
       </c>
       <c r="AG6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>69.45</v>
       </c>
       <c r="AH6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>75.55</v>
       </c>
       <c r="AI6">
@@ -2273,19 +2302,19 @@
         <v>4</v>
       </c>
       <c r="AR6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>44.45</v>
       </c>
       <c r="AS6">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>36.25</v>
       </c>
       <c r="AT6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>36.25</v>
       </c>
       <c r="AU6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>39.450000000000003</v>
       </c>
       <c r="AV6">
@@ -2327,19 +2356,19 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>19.70000000000001</v>
       </c>
       <c r="F7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>-36.9</v>
       </c>
       <c r="G7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>-40.1</v>
       </c>
       <c r="H7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>-45</v>
       </c>
       <c r="I7">
@@ -2370,19 +2399,19 @@
         <v>16</v>
       </c>
       <c r="R7">
-        <f>$Q7*12-(V7+Z7)*0.05</f>
+        <f t="shared" si="1"/>
         <v>181.45</v>
       </c>
       <c r="S7">
-        <f>$Q7*12-(W7+AA7)*0.05</f>
+        <f t="shared" si="2"/>
         <v>184.55</v>
       </c>
       <c r="T7">
-        <f>$Q7*12-(X7+AB7)*0.05</f>
+        <f t="shared" si="3"/>
         <v>178.05</v>
       </c>
       <c r="U7">
-        <f>$Q7*12-(Y7+AC7)*0.05</f>
+        <f t="shared" si="4"/>
         <v>178.05</v>
       </c>
       <c r="V7">
@@ -2413,19 +2442,19 @@
         <v>15</v>
       </c>
       <c r="AE7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>170.75</v>
       </c>
       <c r="AF7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>166.2</v>
       </c>
       <c r="AG7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>166.2</v>
       </c>
       <c r="AH7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>172.3</v>
       </c>
       <c r="AI7">
@@ -2456,19 +2485,19 @@
         <v>18</v>
       </c>
       <c r="AR7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>213.35</v>
       </c>
       <c r="AS7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>205.15</v>
       </c>
       <c r="AT7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>205.15</v>
       </c>
       <c r="AU7">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>208.35</v>
       </c>
       <c r="AV7">
@@ -2510,19 +2539,19 @@
         <v>0</v>
       </c>
       <c r="E8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>2240.672</v>
       </c>
       <c r="F8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>-36.9</v>
       </c>
       <c r="G8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>-40.1</v>
       </c>
       <c r="H8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>-45</v>
       </c>
       <c r="I8">
@@ -2553,19 +2582,19 @@
         <v>25</v>
       </c>
       <c r="R8">
-        <f>$Q8*12-(V8+Z8)*0.05</f>
+        <f t="shared" si="1"/>
         <v>287.2</v>
       </c>
       <c r="S8">
-        <f>$Q8*12-(W8+AA8)*0.05</f>
+        <f t="shared" si="2"/>
         <v>293.8</v>
       </c>
       <c r="T8">
-        <f>$Q8*12-(X8+AB8)*0.05</f>
+        <f t="shared" si="3"/>
         <v>287.3</v>
       </c>
       <c r="U8">
-        <f>$Q8*12-(Y8+AC8)*0.05</f>
+        <f t="shared" si="4"/>
         <v>287.3</v>
       </c>
       <c r="V8">
@@ -2596,19 +2625,19 @@
         <v>25</v>
       </c>
       <c r="AE8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>292</v>
       </c>
       <c r="AF8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>287.45</v>
       </c>
       <c r="AG8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>287.45</v>
       </c>
       <c r="AH8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>293.55</v>
       </c>
       <c r="AI8">
@@ -2639,19 +2668,19 @@
         <v>26</v>
       </c>
       <c r="AR8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>302.77800000000002</v>
       </c>
       <c r="AS8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>302.45</v>
       </c>
       <c r="AT8">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>302.45</v>
       </c>
       <c r="AU8">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>305.64999999999998</v>
       </c>
       <c r="AV8">
@@ -2693,19 +2722,19 @@
         <v>300</v>
       </c>
       <c r="E9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>32.199999999999996</v>
       </c>
       <c r="F9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>837.04799999999989</v>
       </c>
       <c r="G9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>-40.1</v>
       </c>
       <c r="H9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>2970</v>
       </c>
       <c r="I9">
@@ -2736,19 +2765,19 @@
         <v>40</v>
       </c>
       <c r="R9">
-        <f>$Q9*12-(V9+Z9)*0.05</f>
+        <f t="shared" si="1"/>
         <v>469.2</v>
       </c>
       <c r="S9">
-        <f>$Q9*12-(W9+AA9)*0.05</f>
+        <f t="shared" si="2"/>
         <v>475.63799999999998</v>
       </c>
       <c r="T9">
-        <f>$Q9*12-(X9+AB9)*0.05</f>
+        <f t="shared" si="3"/>
         <v>469.3</v>
       </c>
       <c r="U9">
-        <f>$Q9*12-(Y9+AC9)*0.05</f>
+        <f t="shared" si="4"/>
         <v>464.3</v>
       </c>
       <c r="V9">
@@ -2779,19 +2808,19 @@
         <v>38</v>
       </c>
       <c r="AE9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>449.9</v>
       </c>
       <c r="AF9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>441.16399999999999</v>
       </c>
       <c r="AG9">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>445.35</v>
       </c>
       <c r="AH9">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>446.45</v>
       </c>
       <c r="AI9">
@@ -2822,19 +2851,19 @@
         <v>42</v>
       </c>
       <c r="AR9">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>496.55</v>
       </c>
       <c r="AS9">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>496.55</v>
       </c>
       <c r="AT9">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>496.55</v>
       </c>
       <c r="AU9">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>494.75</v>
       </c>
       <c r="AV9">
@@ -2876,19 +2905,19 @@
         <v>0</v>
       </c>
       <c r="E10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>807.9860000000001</v>
       </c>
       <c r="F10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>259.04600000000005</v>
       </c>
       <c r="G10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>2288.6579999999999</v>
       </c>
       <c r="H10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>-30</v>
       </c>
       <c r="I10">
@@ -2919,19 +2948,19 @@
         <v>48</v>
       </c>
       <c r="R10">
-        <f>$Q10*12-(V10+Z10)*0.05</f>
+        <f t="shared" si="1"/>
         <v>567.6</v>
       </c>
       <c r="S10">
-        <f>$Q10*12-(W10+AA10)*0.05</f>
+        <f t="shared" si="2"/>
         <v>568.06600000000003</v>
       </c>
       <c r="T10">
-        <f>$Q10*12-(X10+AB10)*0.05</f>
+        <f t="shared" si="3"/>
         <v>567.70000000000005</v>
       </c>
       <c r="U10">
-        <f>$Q10*12-(Y10+AC10)*0.05</f>
+        <f t="shared" si="4"/>
         <v>567.53800000000001</v>
       </c>
       <c r="V10">
@@ -2962,19 +2991,19 @@
         <v>48</v>
       </c>
       <c r="AE10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>568.11400000000003</v>
       </c>
       <c r="AF10">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>563.20000000000005</v>
       </c>
       <c r="AG10">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>564.29200000000003</v>
       </c>
       <c r="AH10">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>568.85</v>
       </c>
       <c r="AI10">
@@ -3005,19 +3034,19 @@
         <v>50</v>
       </c>
       <c r="AR10">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>595.04999999999995</v>
       </c>
       <c r="AS10">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>595.04999999999995</v>
       </c>
       <c r="AT10">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>586.85</v>
       </c>
       <c r="AU10">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>593.25</v>
       </c>
       <c r="AV10">
@@ -3059,19 +3088,19 @@
         <v>300</v>
       </c>
       <c r="E11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>43.949999999999996</v>
       </c>
       <c r="F11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>2161.2000000000003</v>
       </c>
       <c r="G11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>176.55</v>
       </c>
       <c r="H11">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>2970</v>
       </c>
       <c r="I11">
@@ -3102,19 +3131,19 @@
         <v>53</v>
       </c>
       <c r="R11">
-        <f>$Q11*12-(V11+Z11)*0.05</f>
+        <f t="shared" si="1"/>
         <v>630.25</v>
       </c>
       <c r="S11">
-        <f>$Q11*12-(W11+AA11)*0.05</f>
+        <f t="shared" si="2"/>
         <v>629.096</v>
       </c>
       <c r="T11">
-        <f>$Q11*12-(X11+AB11)*0.05</f>
+        <f t="shared" si="3"/>
         <v>630.35</v>
       </c>
       <c r="U11">
-        <f>$Q11*12-(Y11+AC11)*0.05</f>
+        <f t="shared" si="4"/>
         <v>624.05399999999997</v>
       </c>
       <c r="V11">
@@ -3145,19 +3174,19 @@
         <v>50</v>
       </c>
       <c r="AE11">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>594.25</v>
       </c>
       <c r="AF11">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>589.70000000000005</v>
       </c>
       <c r="AG11">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>589.70000000000005</v>
       </c>
       <c r="AH11">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>590.35</v>
       </c>
       <c r="AI11">
@@ -3188,19 +3217,19 @@
         <v>51</v>
       </c>
       <c r="AR11">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>609.6</v>
       </c>
       <c r="AS11">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>601.4</v>
       </c>
       <c r="AT11">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>601.4</v>
       </c>
       <c r="AU11">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>602.79999999999995</v>
       </c>
       <c r="AV11">
@@ -3242,19 +3271,19 @@
         <v>0</v>
       </c>
       <c r="E12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>1752.828</v>
       </c>
       <c r="F12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>884.95</v>
       </c>
       <c r="G12">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>609.39</v>
       </c>
       <c r="H12">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>-30</v>
       </c>
       <c r="I12">
@@ -3285,19 +3314,19 @@
         <v>48</v>
       </c>
       <c r="R12">
-        <f>$Q12*12-(V12+Z12)*0.05</f>
+        <f t="shared" si="1"/>
         <v>572.65</v>
       </c>
       <c r="S12">
-        <f>$Q12*12-(W12+AA12)*0.05</f>
+        <f t="shared" si="2"/>
         <v>569.25</v>
       </c>
       <c r="T12">
-        <f>$Q12*12-(X12+AB12)*0.05</f>
+        <f t="shared" si="3"/>
         <v>569.51</v>
       </c>
       <c r="U12">
-        <f>$Q12*12-(Y12+AC12)*0.05</f>
+        <f t="shared" si="4"/>
         <v>568.70000000000005</v>
       </c>
       <c r="V12">
@@ -3328,19 +3357,19 @@
         <v>52</v>
       </c>
       <c r="AE12">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>620.12199999999996</v>
       </c>
       <c r="AF12">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>611.75</v>
       </c>
       <c r="AG12">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>616.29999999999995</v>
       </c>
       <c r="AH12">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>616.95000000000005</v>
       </c>
       <c r="AI12">
@@ -3371,19 +3400,19 @@
         <v>49</v>
       </c>
       <c r="AR12">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>579.85</v>
       </c>
       <c r="AS12">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>579.85</v>
       </c>
       <c r="AT12">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>579.85</v>
       </c>
       <c r="AU12">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>581.25</v>
       </c>
       <c r="AV12">
@@ -3425,19 +3454,19 @@
         <v>200</v>
       </c>
       <c r="E13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>1549.5</v>
       </c>
       <c r="F13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>7.512000000000004</v>
       </c>
       <c r="G13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>2621.0219999999995</v>
       </c>
       <c r="H13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>1980</v>
       </c>
       <c r="I13">
@@ -3465,19 +3494,19 @@
         <v>40</v>
       </c>
       <c r="R13">
-        <f>$Q13*12-(V13+Z13)*0.05</f>
+        <f t="shared" si="1"/>
         <v>474.6</v>
       </c>
       <c r="S13">
-        <f>$Q13*12-(W13+AA13)*0.05</f>
+        <f t="shared" si="2"/>
         <v>475.08800000000002</v>
       </c>
       <c r="T13">
-        <f>$Q13*12-(X13+AB13)*0.05</f>
+        <f t="shared" si="3"/>
         <v>474.7</v>
       </c>
       <c r="U13">
-        <f>$Q13*12-(Y13+AC13)*0.05</f>
+        <f t="shared" si="4"/>
         <v>469.7</v>
       </c>
       <c r="V13">
@@ -3508,19 +3537,19 @@
         <v>40</v>
       </c>
       <c r="AE13">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>474.3</v>
       </c>
       <c r="AF13">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>469.75</v>
       </c>
       <c r="AG13">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>469.75</v>
       </c>
       <c r="AH13">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>474.95</v>
       </c>
       <c r="AI13">
@@ -3551,19 +3580,19 @@
         <v>39</v>
       </c>
       <c r="AR13">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>461.8</v>
       </c>
       <c r="AS13">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>461.8</v>
       </c>
       <c r="AT13">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>453.928</v>
       </c>
       <c r="AU13">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>458.2</v>
       </c>
       <c r="AV13">
@@ -3605,19 +3634,19 @@
         <v>100</v>
       </c>
       <c r="E14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>816.4860000000001</v>
       </c>
       <c r="F14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>3104.8159999999998</v>
       </c>
       <c r="G14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>626.66599999999994</v>
       </c>
       <c r="H14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>970</v>
       </c>
       <c r="I14">
@@ -3648,19 +3677,19 @@
         <v>27</v>
       </c>
       <c r="R14">
-        <f>$Q14*12-(V14+Z14)*0.05</f>
+        <f t="shared" si="1"/>
         <v>319.95</v>
       </c>
       <c r="S14">
-        <f>$Q14*12-(W14+AA14)*0.05</f>
+        <f t="shared" si="2"/>
         <v>311.71199999999999</v>
       </c>
       <c r="T14">
-        <f>$Q14*12-(X14+AB14)*0.05</f>
+        <f t="shared" si="3"/>
         <v>317.13400000000001</v>
       </c>
       <c r="U14">
-        <f>$Q14*12-(Y14+AC14)*0.05</f>
+        <f t="shared" si="4"/>
         <v>319.88799999999998</v>
       </c>
       <c r="V14">
@@ -3691,19 +3720,19 @@
         <v>26</v>
       </c>
       <c r="AE14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>303.41399999999999</v>
       </c>
       <c r="AF14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>298.5</v>
       </c>
       <c r="AG14">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>303.05</v>
       </c>
       <c r="AH14">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>303.25</v>
       </c>
       <c r="AI14">
@@ -3734,19 +3763,19 @@
         <v>29</v>
       </c>
       <c r="AR14">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>343.25</v>
       </c>
       <c r="AS14">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>336.03399999999999</v>
       </c>
       <c r="AT14">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>335.05</v>
       </c>
       <c r="AU14">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>339.65</v>
       </c>
       <c r="AV14">
@@ -3788,19 +3817,19 @@
         <v>0</v>
       </c>
       <c r="E15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>918.42800000000011</v>
       </c>
       <c r="F15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>1591.2619999999997</v>
       </c>
       <c r="G15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>339.42800000000005</v>
       </c>
       <c r="H15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>-30</v>
       </c>
       <c r="I15">
@@ -3831,19 +3860,19 @@
         <v>18</v>
       </c>
       <c r="R15">
-        <f>$Q15*12-(V15+Z15)*0.05</f>
+        <f t="shared" si="1"/>
         <v>208.8</v>
       </c>
       <c r="S15">
-        <f>$Q15*12-(W15+AA15)*0.05</f>
+        <f t="shared" si="2"/>
         <v>205.26</v>
       </c>
       <c r="T15">
-        <f>$Q15*12-(X15+AB15)*0.05</f>
+        <f t="shared" si="3"/>
         <v>208.9</v>
       </c>
       <c r="U15">
-        <f>$Q15*12-(Y15+AC15)*0.05</f>
+        <f t="shared" si="4"/>
         <v>208.9</v>
       </c>
       <c r="V15">
@@ -3874,19 +3903,19 @@
         <v>17</v>
       </c>
       <c r="AE15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>195.9</v>
       </c>
       <c r="AF15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>187.52799999999999</v>
       </c>
       <c r="AG15">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>195.172</v>
       </c>
       <c r="AH15">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>196.1</v>
       </c>
       <c r="AI15">
@@ -3917,19 +3946,19 @@
         <v>17</v>
       </c>
       <c r="AR15">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>199.77199999999999</v>
       </c>
       <c r="AS15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>191.9</v>
       </c>
       <c r="AT15">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>191.9</v>
       </c>
       <c r="AU15">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>196.5</v>
       </c>
       <c r="AV15">
@@ -3971,19 +4000,19 @@
         <v>0</v>
       </c>
       <c r="E16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>2268.6639999999998</v>
       </c>
       <c r="F16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>289.60000000000002</v>
       </c>
       <c r="G16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>1622.4639999999999</v>
       </c>
       <c r="H16">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>-30</v>
       </c>
       <c r="I16">
@@ -4014,19 +4043,19 @@
         <v>7</v>
       </c>
       <c r="R16">
-        <f>$Q16*12-(V16+Z16)*0.05</f>
+        <f t="shared" si="1"/>
         <v>73.585999999999999</v>
       </c>
       <c r="S16">
-        <f>$Q16*12-(W16+AA16)*0.05</f>
+        <f t="shared" si="2"/>
         <v>76.040000000000006</v>
       </c>
       <c r="T16">
-        <f>$Q16*12-(X16+AB16)*0.05</f>
+        <f t="shared" si="3"/>
         <v>73.2</v>
       </c>
       <c r="U16">
-        <f>$Q16*12-(Y16+AC16)*0.05</f>
+        <f t="shared" si="4"/>
         <v>74.009999999999991</v>
       </c>
       <c r="V16">
@@ -4057,19 +4086,19 @@
         <v>5</v>
       </c>
       <c r="AE16">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>52.15</v>
       </c>
       <c r="AF16">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>43.05</v>
       </c>
       <c r="AG16">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>47.235999999999997</v>
       </c>
       <c r="AH16">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>52.35</v>
       </c>
       <c r="AI16">
@@ -4100,19 +4129,19 @@
         <v>4</v>
       </c>
       <c r="AR16">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>36.1</v>
       </c>
       <c r="AS16">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>36.1</v>
       </c>
       <c r="AT16">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>36.1</v>
       </c>
       <c r="AU16">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>40.700000000000003</v>
       </c>
       <c r="AV16">
@@ -4154,19 +4183,19 @@
         <v>0</v>
       </c>
       <c r="E17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>115.732</v>
       </c>
       <c r="F17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>823.63199999999995</v>
       </c>
       <c r="G17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>98.677999999999997</v>
       </c>
       <c r="H17">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>-30</v>
       </c>
       <c r="I17">
@@ -4197,19 +4226,19 @@
         <v>5</v>
       </c>
       <c r="R17">
-        <f>$Q17*12-(V17+Z17)*0.05</f>
+        <f t="shared" si="1"/>
         <v>49.35</v>
       </c>
       <c r="S17">
-        <f>$Q17*12-(W17+AA17)*0.05</f>
+        <f t="shared" si="2"/>
         <v>49.05</v>
       </c>
       <c r="T17">
-        <f>$Q17*12-(X17+AB17)*0.05</f>
+        <f t="shared" si="3"/>
         <v>49.2</v>
       </c>
       <c r="U17">
-        <f>$Q17*12-(Y17+AC17)*0.05</f>
+        <f t="shared" si="4"/>
         <v>49.45</v>
       </c>
       <c r="V17">
@@ -4240,19 +4269,19 @@
         <v>3</v>
       </c>
       <c r="AE17">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>28.118000000000002</v>
       </c>
       <c r="AF17">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>19.018000000000001</v>
       </c>
       <c r="AG17">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>23.021999999999998</v>
       </c>
       <c r="AH17">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>28.5</v>
       </c>
       <c r="AI17">
@@ -4283,19 +4312,19 @@
         <v>2</v>
       </c>
       <c r="AR17">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>12.2</v>
       </c>
       <c r="AS17">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>12.2</v>
       </c>
       <c r="AT17">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>12.2</v>
       </c>
       <c r="AU17">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>16.8</v>
       </c>
       <c r="AV17">
@@ -4337,19 +4366,19 @@
         <v>0</v>
       </c>
       <c r="E18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>796.18200000000002</v>
       </c>
       <c r="F18">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>865.62199999999996</v>
       </c>
       <c r="G18">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>561.99400000000003</v>
       </c>
       <c r="H18">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>-30</v>
       </c>
       <c r="I18">
@@ -4380,19 +4409,19 @@
         <v>7</v>
       </c>
       <c r="R18">
-        <f>$Q18*12-(V18+Z18)*0.05</f>
+        <f t="shared" si="1"/>
         <v>69.650000000000006</v>
       </c>
       <c r="S18">
-        <f>$Q18*12-(W18+AA18)*0.05</f>
+        <f t="shared" si="2"/>
         <v>76.963999999999999</v>
       </c>
       <c r="T18">
-        <f>$Q18*12-(X18+AB18)*0.05</f>
+        <f t="shared" si="3"/>
         <v>70.634</v>
       </c>
       <c r="U18">
-        <f>$Q18*12-(Y18+AC18)*0.05</f>
+        <f t="shared" si="4"/>
         <v>69.75</v>
       </c>
       <c r="V18">
@@ -4423,19 +4452,19 @@
         <v>4</v>
       </c>
       <c r="AE18">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>40.317999999999998</v>
       </c>
       <c r="AF18">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>27.213999999999999</v>
       </c>
       <c r="AG18">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>35.222000000000001</v>
       </c>
       <c r="AH18">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>40.700000000000003</v>
       </c>
       <c r="AI18">
@@ -4466,19 +4495,19 @@
         <v>7</v>
       </c>
       <c r="AR18">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>72.55</v>
       </c>
       <c r="AS18">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>72.55</v>
       </c>
       <c r="AT18">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>72.55</v>
       </c>
       <c r="AU18">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>77.150000000000006</v>
       </c>
       <c r="AV18">
@@ -4520,19 +4549,19 @@
         <v>0</v>
       </c>
       <c r="E19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>377.58399999999995</v>
       </c>
       <c r="F19">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>720.5680000000001</v>
       </c>
       <c r="G19">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>401.69799999999998</v>
       </c>
       <c r="H19">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>-30</v>
       </c>
       <c r="I19">
@@ -4563,19 +4592,19 @@
         <v>18</v>
       </c>
       <c r="R19">
-        <f>$Q19*12-(V19+Z19)*0.05</f>
+        <f t="shared" si="1"/>
         <v>202.55</v>
       </c>
       <c r="S19">
-        <f>$Q19*12-(W19+AA19)*0.05</f>
+        <f t="shared" si="2"/>
         <v>206.786</v>
       </c>
       <c r="T19">
-        <f>$Q19*12-(X19+AB19)*0.05</f>
+        <f t="shared" si="3"/>
         <v>202.886</v>
       </c>
       <c r="U19">
-        <f>$Q19*12-(Y19+AC19)*0.05</f>
+        <f t="shared" si="4"/>
         <v>202.16399999999999</v>
       </c>
       <c r="V19">
@@ -4606,19 +4635,19 @@
         <v>13</v>
       </c>
       <c r="AE19">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>146.96600000000001</v>
       </c>
       <c r="AF19">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>135.68199999999999</v>
       </c>
       <c r="AG19">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>142.416</v>
       </c>
       <c r="AH19">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>149.35</v>
       </c>
       <c r="AI19">
@@ -4649,19 +4678,19 @@
         <v>17</v>
       </c>
       <c r="AR19">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>193.4</v>
       </c>
       <c r="AS19">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>193.4</v>
       </c>
       <c r="AT19">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>193.4</v>
       </c>
       <c r="AU19">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>198</v>
       </c>
       <c r="AV19">
@@ -4703,19 +4732,19 @@
         <v>200</v>
       </c>
       <c r="E20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>774.34999999999991</v>
       </c>
       <c r="F20">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>5.9859999999999971</v>
       </c>
       <c r="G20">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>739.178</v>
       </c>
       <c r="H20">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>1980</v>
       </c>
       <c r="I20">
@@ -4746,19 +4775,19 @@
         <v>28</v>
       </c>
       <c r="R20">
-        <f>$Q20*12-(V20+Z20)*0.05</f>
+        <f t="shared" si="1"/>
         <v>322.16800000000001</v>
       </c>
       <c r="S20">
-        <f>$Q20*12-(W20+AA20)*0.05</f>
+        <f t="shared" si="2"/>
         <v>331.75</v>
       </c>
       <c r="T20">
-        <f>$Q20*12-(X20+AB20)*0.05</f>
+        <f t="shared" si="3"/>
         <v>323.18599999999998</v>
       </c>
       <c r="U20">
-        <f>$Q20*12-(Y20+AC20)*0.05</f>
+        <f t="shared" si="4"/>
         <v>315</v>
       </c>
       <c r="V20">
@@ -4789,19 +4818,19 @@
         <v>29</v>
       </c>
       <c r="AE20">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>338.23199999999997</v>
       </c>
       <c r="AF20">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>328.95</v>
       </c>
       <c r="AG20">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>333.13600000000002</v>
       </c>
       <c r="AH20">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>342.8</v>
       </c>
       <c r="AI20">
@@ -4832,19 +4861,19 @@
         <v>29</v>
       </c>
       <c r="AR20">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>338.85</v>
       </c>
       <c r="AS20">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>338.85</v>
       </c>
       <c r="AT20">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>338.85</v>
       </c>
       <c r="AU20">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>338.45</v>
       </c>
       <c r="AV20">
@@ -4886,19 +4915,19 @@
         <v>100</v>
       </c>
       <c r="E21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>17.731999999999996</v>
       </c>
       <c r="F21">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>2.1480000000000068</v>
       </c>
       <c r="G21">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>105.03399999999999</v>
       </c>
       <c r="H21">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>970</v>
       </c>
       <c r="I21">
@@ -4929,19 +4958,19 @@
         <v>38</v>
       </c>
       <c r="R21">
-        <f>$Q21*12-(V21+Z21)*0.05</f>
+        <f t="shared" si="1"/>
         <v>444.06799999999998</v>
       </c>
       <c r="S21">
-        <f>$Q21*12-(W21+AA21)*0.05</f>
+        <f t="shared" si="2"/>
         <v>448.488</v>
       </c>
       <c r="T21">
-        <f>$Q21*12-(X21+AB21)*0.05</f>
+        <f t="shared" si="3"/>
         <v>445.08600000000001</v>
       </c>
       <c r="U21">
-        <f>$Q21*12-(Y21+AC21)*0.05</f>
+        <f t="shared" si="4"/>
         <v>441.9</v>
       </c>
       <c r="V21">
@@ -4972,19 +5001,19 @@
         <v>42</v>
       </c>
       <c r="AE21">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>496.15</v>
       </c>
       <c r="AF21">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>487.05</v>
       </c>
       <c r="AG21">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>491.23599999999999</v>
       </c>
       <c r="AH21">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>495.9</v>
       </c>
       <c r="AI21">
@@ -5015,19 +5044,19 @@
         <v>43</v>
       </c>
       <c r="AR21">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>509</v>
       </c>
       <c r="AS21">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>509</v>
       </c>
       <c r="AT21">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>508.34399999999999</v>
       </c>
       <c r="AU21">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>508.6</v>
       </c>
       <c r="AV21">
@@ -5069,19 +5098,19 @@
         <v>100</v>
       </c>
       <c r="E22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>-18.668000000000003</v>
       </c>
       <c r="F22">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>67.433999999999997</v>
       </c>
       <c r="G22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>1094.6100000000001</v>
       </c>
       <c r="H22">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>975</v>
       </c>
       <c r="I22">
@@ -5112,19 +5141,19 @@
         <v>52</v>
       </c>
       <c r="R22">
-        <f>$Q22*12-(V22+Z22)*0.05</f>
+        <f t="shared" si="1"/>
         <v>614.66800000000001</v>
       </c>
       <c r="S22">
-        <f>$Q22*12-(W22+AA22)*0.05</f>
+        <f t="shared" si="2"/>
         <v>618.76400000000001</v>
       </c>
       <c r="T22">
-        <f>$Q22*12-(X22+AB22)*0.05</f>
+        <f t="shared" si="3"/>
         <v>615.68600000000004</v>
       </c>
       <c r="U22">
-        <f>$Q22*12-(Y22+AC22)*0.05</f>
+        <f t="shared" si="4"/>
         <v>607.33799999999997</v>
       </c>
       <c r="V22">
@@ -5155,19 +5184,19 @@
         <v>52</v>
       </c>
       <c r="AE22">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>618.75</v>
       </c>
       <c r="AF22">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>609.65</v>
       </c>
       <c r="AG22">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>613.83600000000001</v>
       </c>
       <c r="AH22">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>618.5</v>
       </c>
       <c r="AI22">
@@ -5198,19 +5227,19 @@
         <v>47</v>
       </c>
       <c r="AR22">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>559.35</v>
       </c>
       <c r="AS22">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>559.35</v>
       </c>
       <c r="AT22">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>553.11800000000005</v>
       </c>
       <c r="AU22">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>558.95000000000005</v>
       </c>
       <c r="AV22">
@@ -5252,19 +5281,19 @@
         <v>200</v>
       </c>
       <c r="E23">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>-18.668000000000003</v>
       </c>
       <c r="F23">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>133.04399999999998</v>
       </c>
       <c r="G23">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>15.991999999999997</v>
       </c>
       <c r="H23">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>1970</v>
       </c>
       <c r="I23">
@@ -5295,19 +5324,19 @@
         <v>55</v>
       </c>
       <c r="R23">
-        <f>$Q23*12-(V23+Z23)*0.05</f>
+        <f t="shared" si="1"/>
         <v>653.41800000000001</v>
       </c>
       <c r="S23">
-        <f>$Q23*12-(W23+AA23)*0.05</f>
+        <f t="shared" si="2"/>
         <v>652.19000000000005</v>
       </c>
       <c r="T23">
-        <f>$Q23*12-(X23+AB23)*0.05</f>
+        <f t="shared" si="3"/>
         <v>654.43600000000004</v>
       </c>
       <c r="U23">
-        <f>$Q23*12-(Y23+AC23)*0.05</f>
+        <f t="shared" si="4"/>
         <v>650.60199999999998</v>
       </c>
       <c r="V23">
@@ -5338,19 +5367,19 @@
         <v>54</v>
       </c>
       <c r="AE23">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>645.45000000000005</v>
       </c>
       <c r="AF23">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>636.35</v>
       </c>
       <c r="AG23">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>640.35400000000004</v>
       </c>
       <c r="AH23">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>640.20000000000005</v>
       </c>
       <c r="AI23">
@@ -5381,19 +5410,19 @@
         <v>53</v>
       </c>
       <c r="AR23">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>634</v>
       </c>
       <c r="AS23">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>634</v>
       </c>
       <c r="AT23">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>627.76800000000003</v>
       </c>
       <c r="AU23">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>628.6</v>
       </c>
       <c r="AV23">
@@ -5435,19 +5464,19 @@
         <v>200</v>
       </c>
       <c r="E24">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>1675.8320000000001</v>
       </c>
       <c r="F24">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>1673.5840000000001</v>
       </c>
       <c r="G24">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>16.173999999999999</v>
       </c>
       <c r="H24">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>1980</v>
       </c>
       <c r="I24">
@@ -5478,19 +5507,19 @@
         <v>48</v>
       </c>
       <c r="R24">
-        <f>$Q24*12-(V24+Z24)*0.05</f>
+        <f t="shared" si="1"/>
         <v>571.81799999999998</v>
       </c>
       <c r="S24">
-        <f>$Q24*12-(W24+AA24)*0.05</f>
+        <f t="shared" si="2"/>
         <v>570.91399999999999</v>
       </c>
       <c r="T24">
-        <f>$Q24*12-(X24+AB24)*0.05</f>
+        <f t="shared" si="3"/>
         <v>572.83600000000001</v>
       </c>
       <c r="U24">
-        <f>$Q24*12-(Y24+AC24)*0.05</f>
+        <f t="shared" si="4"/>
         <v>563.19200000000001</v>
       </c>
       <c r="V24">
@@ -5521,19 +5550,19 @@
         <v>52</v>
       </c>
       <c r="AE24">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>619.04999999999995</v>
       </c>
       <c r="AF24">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>614.76800000000003</v>
       </c>
       <c r="AG24">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>618.77200000000005</v>
       </c>
       <c r="AH24">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>618.79999999999995</v>
       </c>
       <c r="AI24">
@@ -5564,19 +5593,19 @@
         <v>49</v>
       </c>
       <c r="AR24">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>584.95000000000005</v>
       </c>
       <c r="AS24">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>580.57799999999997</v>
       </c>
       <c r="AT24">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>582.21799999999996</v>
       </c>
       <c r="AU24">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>578.04999999999995</v>
       </c>
       <c r="AV24">
@@ -5618,19 +5647,19 @@
         <v>100</v>
       </c>
       <c r="E25">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>2041.3779999999997</v>
       </c>
       <c r="F25">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>1165.9560000000001</v>
       </c>
       <c r="G25">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>630.74999999999989</v>
       </c>
       <c r="H25">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>970</v>
       </c>
       <c r="I25">
@@ -5661,19 +5690,19 @@
         <v>40</v>
       </c>
       <c r="R25">
-        <f>$Q25*12-(V25+Z25)*0.05</f>
+        <f t="shared" si="1"/>
         <v>477.81799999999998</v>
       </c>
       <c r="S25">
-        <f>$Q25*12-(W25+AA25)*0.05</f>
+        <f t="shared" si="2"/>
         <v>470.94200000000001</v>
       </c>
       <c r="T25">
-        <f>$Q25*12-(X25+AB25)*0.05</f>
+        <f t="shared" si="3"/>
         <v>478.83600000000001</v>
       </c>
       <c r="U25">
-        <f>$Q25*12-(Y25+AC25)*0.05</f>
+        <f t="shared" si="4"/>
         <v>473.70600000000002</v>
       </c>
       <c r="V25">
@@ -5704,19 +5733,19 @@
         <v>39</v>
       </c>
       <c r="AE25">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>461.54199999999997</v>
       </c>
       <c r="AF25">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>456.53199999999998</v>
       </c>
       <c r="AG25">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>461.44600000000003</v>
       </c>
       <c r="AH25">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>459.75</v>
       </c>
       <c r="AI25">
@@ -5747,19 +5776,19 @@
         <v>39</v>
       </c>
       <c r="AR25">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>460.012</v>
       </c>
       <c r="AS25">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>462.2</v>
       </c>
       <c r="AT25">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>464.16800000000001</v>
       </c>
       <c r="AU25">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>460</v>
       </c>
       <c r="AV25">
@@ -5801,19 +5830,19 @@
         <v>0</v>
       </c>
       <c r="E26">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>418.79999999999995</v>
       </c>
       <c r="F26">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>138.386</v>
       </c>
       <c r="G26">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>787.59</v>
       </c>
       <c r="H26">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>-30</v>
       </c>
       <c r="I26">
@@ -5841,19 +5870,19 @@
         <v>29</v>
       </c>
       <c r="R26">
-        <f>$Q26*12-(V26+Z26)*0.05</f>
+        <f t="shared" si="1"/>
         <v>347.26799999999997</v>
       </c>
       <c r="S26">
-        <f>$Q26*12-(W26+AA26)*0.05</f>
+        <f t="shared" si="2"/>
         <v>341.202</v>
       </c>
       <c r="T26">
-        <f>$Q26*12-(X26+AB26)*0.05</f>
+        <f t="shared" si="3"/>
         <v>347.96199999999999</v>
       </c>
       <c r="U26">
-        <f>$Q26*12-(Y26+AC26)*0.05</f>
+        <f t="shared" si="4"/>
         <v>341.69799999999998</v>
       </c>
       <c r="V26">
@@ -5884,19 +5913,19 @@
         <v>30</v>
       </c>
       <c r="AE26">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>354.13200000000001</v>
       </c>
       <c r="AF26">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>349.85</v>
       </c>
       <c r="AG26">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>353.85399999999998</v>
       </c>
       <c r="AH26">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>353.25</v>
       </c>
       <c r="AI26">
@@ -5927,19 +5956,19 @@
         <v>25</v>
       </c>
       <c r="AR26">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>291.95</v>
       </c>
       <c r="AS26">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>295.45</v>
       </c>
       <c r="AT26">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>294.79399999999998</v>
       </c>
       <c r="AU26">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>293.25</v>
       </c>
       <c r="AV26">
@@ -5981,19 +6010,19 @@
         <v>0</v>
       </c>
       <c r="E27">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>308.06</v>
       </c>
       <c r="F27">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>617.56600000000003</v>
       </c>
       <c r="G27">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>1908.9559999999999</v>
       </c>
       <c r="H27">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>-30</v>
       </c>
       <c r="I27">
@@ -6024,19 +6053,19 @@
         <v>18</v>
       </c>
       <c r="R27">
-        <f>$Q27*12-(V27+Z27)*0.05</f>
+        <f t="shared" si="1"/>
         <v>214.87200000000001</v>
       </c>
       <c r="S27">
-        <f>$Q27*12-(W27+AA27)*0.05</f>
+        <f t="shared" si="2"/>
         <v>210.75</v>
       </c>
       <c r="T27">
-        <f>$Q27*12-(X27+AB27)*0.05</f>
+        <f t="shared" si="3"/>
         <v>213.136</v>
       </c>
       <c r="U27">
-        <f>$Q27*12-(Y27+AC27)*0.05</f>
+        <f t="shared" si="4"/>
         <v>209.95</v>
       </c>
       <c r="V27">
@@ -6067,19 +6096,19 @@
         <v>16</v>
       </c>
       <c r="AE27">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>186.56800000000001</v>
       </c>
       <c r="AF27">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>182.65</v>
       </c>
       <c r="AG27">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>186.29</v>
       </c>
       <c r="AH27">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>186.05</v>
       </c>
       <c r="AI27">
@@ -6110,19 +6139,19 @@
         <v>15</v>
       </c>
       <c r="AR27">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>172.7</v>
       </c>
       <c r="AS27">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>172.92</v>
       </c>
       <c r="AT27">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>169.96799999999999</v>
       </c>
       <c r="AU27">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>174</v>
       </c>
       <c r="AV27">
@@ -6164,19 +6193,19 @@
         <v>100</v>
       </c>
       <c r="E28">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>1122.9660000000001</v>
       </c>
       <c r="F28">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>1564.742</v>
       </c>
       <c r="G28">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>817.14200000000005</v>
       </c>
       <c r="H28">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>975</v>
       </c>
       <c r="I28">
@@ -6207,19 +6236,19 @@
         <v>8</v>
       </c>
       <c r="R28">
-        <f>$Q28*12-(V28+Z28)*0.05</f>
+        <f t="shared" si="1"/>
         <v>92.518000000000001</v>
       </c>
       <c r="S28">
-        <f>$Q28*12-(W28+AA28)*0.05</f>
+        <f t="shared" si="2"/>
         <v>89.367999999999995</v>
       </c>
       <c r="T28">
-        <f>$Q28*12-(X28+AB28)*0.05</f>
+        <f t="shared" si="3"/>
         <v>93.536000000000001</v>
       </c>
       <c r="U28">
-        <f>$Q28*12-(Y28+AC28)*0.05</f>
+        <f t="shared" si="4"/>
         <v>85.35</v>
       </c>
       <c r="V28">
@@ -6250,19 +6279,19 @@
         <v>4</v>
       </c>
       <c r="AE28">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>42.768000000000001</v>
       </c>
       <c r="AF28">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>37.576000000000001</v>
       </c>
       <c r="AG28">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>38.304000000000002</v>
       </c>
       <c r="AH28">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>42.25</v>
       </c>
       <c r="AI28">
@@ -6293,19 +6322,19 @@
         <v>3</v>
       </c>
       <c r="AR28">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>25.898</v>
       </c>
       <c r="AS28">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>24.15</v>
       </c>
       <c r="AT28">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>26.118000000000002</v>
       </c>
       <c r="AU28">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>30.15</v>
       </c>
       <c r="AV28">
@@ -6347,19 +6376,19 @@
         <v>0</v>
       </c>
       <c r="E29">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>751.45</v>
       </c>
       <c r="F29">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>425.41</v>
       </c>
       <c r="G29">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>793.99199999999996</v>
       </c>
       <c r="H29">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>-25</v>
       </c>
       <c r="I29">
@@ -6390,19 +6419,19 @@
         <v>4</v>
       </c>
       <c r="R29">
-        <f>$Q29*12-(V29+Z29)*0.05</f>
+        <f t="shared" si="1"/>
         <v>43.584000000000003</v>
       </c>
       <c r="S29">
-        <f>$Q29*12-(W29+AA29)*0.05</f>
+        <f t="shared" si="2"/>
         <v>36.082000000000001</v>
       </c>
       <c r="T29">
-        <f>$Q29*12-(X29+AB29)*0.05</f>
+        <f t="shared" si="3"/>
         <v>41.686</v>
       </c>
       <c r="U29">
-        <f>$Q29*12-(Y29+AC29)*0.05</f>
+        <f t="shared" si="4"/>
         <v>40.768000000000001</v>
       </c>
       <c r="V29">
@@ -6433,19 +6462,19 @@
         <v>1</v>
       </c>
       <c r="AE29">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>6.8179999999999996</v>
       </c>
       <c r="AF29">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>1.6259999999999994</v>
       </c>
       <c r="AG29">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>2.3539999999999992</v>
       </c>
       <c r="AH29">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>6.3</v>
       </c>
       <c r="AI29">
@@ -6476,19 +6505,19 @@
         <v>1</v>
       </c>
       <c r="AR29">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>-0.8019999999999996</v>
       </c>
       <c r="AS29">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>0.19999999999999929</v>
       </c>
       <c r="AT29">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>2.1679999999999993</v>
       </c>
       <c r="AU29">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>6.1999999999999993</v>
       </c>
       <c r="AV29">
@@ -6530,19 +6559,19 @@
         <v>0</v>
       </c>
       <c r="E30">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>707.09399999999994</v>
       </c>
       <c r="F30">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>822.44200000000001</v>
       </c>
       <c r="G30">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>191.81399999999999</v>
       </c>
       <c r="H30">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>-25</v>
       </c>
       <c r="I30">
@@ -6573,19 +6602,19 @@
         <v>8</v>
       </c>
       <c r="R30">
-        <f>$Q30*12-(V30+Z30)*0.05</f>
+        <f t="shared" si="1"/>
         <v>89.067999999999998</v>
       </c>
       <c r="S30">
-        <f>$Q30*12-(W30+AA30)*0.05</f>
+        <f t="shared" si="2"/>
         <v>82.7</v>
       </c>
       <c r="T30">
-        <f>$Q30*12-(X30+AB30)*0.05</f>
+        <f t="shared" si="3"/>
         <v>89.924000000000007</v>
       </c>
       <c r="U30">
-        <f>$Q30*12-(Y30+AC30)*0.05</f>
+        <f t="shared" si="4"/>
         <v>86.9</v>
       </c>
       <c r="V30">
@@ -6616,19 +6645,19 @@
         <v>8</v>
       </c>
       <c r="AE30">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>90.49</v>
       </c>
       <c r="AF30">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>85.843999999999994</v>
       </c>
       <c r="AG30">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>85.843999999999994</v>
       </c>
       <c r="AH30">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>90.7</v>
       </c>
       <c r="AI30">
@@ -6659,19 +6688,19 @@
         <v>5</v>
       </c>
       <c r="AR30">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>47.448</v>
       </c>
       <c r="AS30">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>48.45</v>
       </c>
       <c r="AT30">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>50.417999999999999</v>
       </c>
       <c r="AU30">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>54.45</v>
       </c>
       <c r="AV30">
@@ -6713,19 +6742,19 @@
         <v>200</v>
       </c>
       <c r="E31">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>1633.73</v>
       </c>
       <c r="F31">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>195.76400000000001</v>
       </c>
       <c r="G31">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>1695.5620000000001</v>
       </c>
       <c r="H31">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>1970</v>
       </c>
       <c r="I31">
@@ -6756,19 +6785,19 @@
         <v>14</v>
       </c>
       <c r="R31">
-        <f>$Q31*12-(V31+Z31)*0.05</f>
+        <f t="shared" si="1"/>
         <v>157.71799999999999</v>
       </c>
       <c r="S31">
-        <f>$Q31*12-(W31+AA31)*0.05</f>
+        <f t="shared" si="2"/>
         <v>158.964</v>
       </c>
       <c r="T31">
-        <f>$Q31*12-(X31+AB31)*0.05</f>
+        <f t="shared" si="3"/>
         <v>158.73599999999999</v>
       </c>
       <c r="U31">
-        <f>$Q31*12-(Y31+AC31)*0.05</f>
+        <f t="shared" si="4"/>
         <v>155.55000000000001</v>
       </c>
       <c r="V31">
@@ -6799,19 +6828,19 @@
         <v>14</v>
       </c>
       <c r="AE31">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>159.00399999999999</v>
       </c>
       <c r="AF31">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>158.54400000000001</v>
       </c>
       <c r="AG31">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>154.54</v>
       </c>
       <c r="AH31">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>158.4</v>
       </c>
       <c r="AI31">
@@ -6842,19 +6871,19 @@
         <v>13</v>
       </c>
       <c r="AR31">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>144.09800000000001</v>
       </c>
       <c r="AS31">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>144.44399999999999</v>
       </c>
       <c r="AT31">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>146.41200000000001</v>
       </c>
       <c r="AU31">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>146.1</v>
       </c>
       <c r="AV31">
@@ -6892,7 +6921,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2024467F-FDD9-460C-AC01-9D46DAB17942}">
   <dimension ref="A1:K23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
